--- a/data/ciudad_de_dios.xlsx
+++ b/data/ciudad_de_dios.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,25 +457,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -497,11 +502,11 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -509,6 +514,9 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -528,18 +536,21 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
         <v>9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>17</v>
       </c>
-      <c r="G3" t="n">
-        <v>15</v>
-      </c>
       <c r="H3" t="n">
         <v>15</v>
       </c>
       <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -559,18 +570,21 @@
         <v>15</v>
       </c>
       <c r="E4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
         <v>9</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>17</v>
       </c>
-      <c r="G4" t="n">
-        <v>15</v>
-      </c>
       <c r="H4" t="n">
         <v>15</v>
       </c>
       <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -590,18 +604,21 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>17</v>
       </c>
-      <c r="G5" t="n">
-        <v>15</v>
-      </c>
       <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
         <v>16</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>11</v>
       </c>
     </row>
@@ -621,18 +638,21 @@
         <v>15</v>
       </c>
       <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
         <v>14</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>18</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>14</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>20</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>15</v>
       </c>
     </row>
@@ -652,18 +672,21 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>7</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>12</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>17</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,11 +706,11 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
@@ -695,6 +718,9 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -717,15 +743,18 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
         <v>22</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>13</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>22</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -745,18 +774,21 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
         <v>7</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>17</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>16</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>12</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>15</v>
       </c>
     </row>
@@ -776,18 +808,21 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
         <v>14</v>
       </c>
-      <c r="F11" t="n">
-        <v>15</v>
-      </c>
       <c r="G11" t="n">
         <v>15</v>
       </c>
       <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
         <v>20</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>15</v>
       </c>
     </row>
@@ -807,18 +842,21 @@
         <v>15</v>
       </c>
       <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
         <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16</v>
       </c>
       <c r="G12" t="n">
         <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="n">
         <v>14</v>
       </c>
     </row>
@@ -833,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,25 +902,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -897,15 +940,16 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -930,25 +974,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -977,25 +1026,30 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1024,25 +1078,30 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1071,25 +1130,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1116,27 +1180,28 @@
           <t>10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1147,15 +1212,16 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1185,20 +1251,25 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1227,25 +1298,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1274,14 +1350,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>15</t>
@@ -1289,10 +1365,15 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -1321,25 +1402,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
